--- a/URUGUAIANA.xlsx
+++ b/URUGUAIANA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FF3B1CF-D341-4308-B2BC-1BE95EB8DCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FB17F81-D261-42B9-AAE4-E704CF8C91B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1244,7 +1244,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{A316D7CC-980D-4392-91EB-A6A184CDA34D}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{16C24597-15BA-4C1F-B332-E14758A2531E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1274,10 +1274,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A84F6382-7B6A-4E25-B76E-5CB946569609}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38827D62-934C-4C0D-A3F8-04186DEC0148}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1315,7 +1315,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD37C90-A379-42EF-8F0A-E9AF4EB4E77C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1B16F8D-333C-424C-BA57-5E3A1DDD17B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,7 +1378,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21C4D5C3-19FB-4052-B3AD-E890E75AD6FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401422D1-055E-47F9-B3B3-3165EF23064A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1397,7 +1397,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA406843-53EC-6440-443F-3328850528C9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D03CE3E-46DE-3AF7-C72A-78A56E2CD286}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1446,7 +1446,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2563BE1D-A816-D7F9-5613-81F7097B8F4C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F57983-2429-CCFF-3B67-FDBFC947C26B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1465,7 +1465,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580F8F0B-B224-51F7-7FE2-65BCEC713F76}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E01EB88C-DB3E-3DA4-AE47-1EB301A2E2A7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1496,7 +1496,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D905F432-A2F9-2393-0AD8-C0F9ED7E1774}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DCB7869-AE4E-9E7F-21FC-E25099E2AF5D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1527,7 +1527,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0E5D857-D859-98F9-10E4-202BAB83CDB9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A3655C4-6514-9972-0BB0-170311D8C699}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1570,7 +1570,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811573DB-AD71-433B-9D96-9F359B1E2F1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07C452A-E173-42E0-9612-BFFAB29D12BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,7 +1608,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA69007E-4B36-43FE-AB97-0FD0FBBEB808}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0B8361-8C8B-474A-98DF-0566139F5AB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1651,7 +1651,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0810FBC9-BE03-46DF-8FC2-4515B87CCA1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91ABBD5E-2780-4761-A22B-0BE0D53E0A30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1964,7 +1964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA008B8-620C-4532-BA69-F1228E4151D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5893C75-3EA8-4BB3-8B47-7D9CE6E2E78C}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/URUGUAIANA.xlsx
+++ b/URUGUAIANA.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FB17F81-D261-42B9-AAE4-E704CF8C91B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F6851E5-5096-48A0-9DCD-00B9E4EEE780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="310">
   <si>
     <t>COMARCA</t>
   </si>
@@ -956,15 +955,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>URUGUAIANA</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1224,27 +1214,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{16C24597-15BA-4C1F-B332-E14758A2531E}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{75AC401F-389D-4FED-967D-7440CFF5CBD3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1274,10 +1249,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38827D62-934C-4C0D-A3F8-04186DEC0148}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{578C6FCE-45E2-449E-AD8D-CDEAA93F408B}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1315,7 +1290,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1B16F8D-333C-424C-BA57-5E3A1DDD17B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{159D7395-FC3E-485F-BB95-4823E14DEF7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,7 +1353,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401422D1-055E-47F9-B3B3-3165EF23064A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7BDCF5A-9221-4E21-A276-91473936A619}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1397,7 +1372,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D03CE3E-46DE-3AF7-C72A-78A56E2CD286}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14AD205A-EE49-6B65-9C7B-4CA405908A9C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1446,7 +1421,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F57983-2429-CCFF-3B67-FDBFC947C26B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B4F7EE3-BEE1-0863-52CC-828A0325506A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1465,7 +1440,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E01EB88C-DB3E-3DA4-AE47-1EB301A2E2A7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419000AF-66F9-1E91-69DF-4F95D282412D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1496,7 +1471,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DCB7869-AE4E-9E7F-21FC-E25099E2AF5D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DFC32B1-B8F4-0B87-F20A-35EAE90404BA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1527,7 +1502,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A3655C4-6514-9972-0BB0-170311D8C699}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19FAFB3F-2C07-DEB7-A780-1F9F630C94C2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1570,7 +1545,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07C452A-E173-42E0-9612-BFFAB29D12BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BA2F0DE-257A-46D9-B15F-91B5D7862DBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,7 +1583,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB0B8361-8C8B-474A-98DF-0566139F5AB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B75CF62-D975-42BC-8D71-274D312A8E33}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1651,7 +1626,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91ABBD5E-2780-4761-A22B-0BE0D53E0A30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A88EF6E8-EB13-40FC-AED4-44540597F519}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1964,7 +1939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5893C75-3EA8-4BB3-8B47-7D9CE6E2E78C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8553A12-07C6-4833-A513-183F6B55E09A}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1976,98 +1951,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="35"/>
-    <col min="6" max="6" width="2" style="35" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="35" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="35"/>
+    <col min="1" max="5" width="12.5703125" style="30"/>
+    <col min="6" max="6" width="2" style="30" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="30" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="34"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="34"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="34"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="34"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="34"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="34"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="34"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="34"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="34"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="34"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="34"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="34"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="34"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="34"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="34"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="34"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="34"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="34"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="34"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="34"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="34"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="34"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="34"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="34"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="34"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="34"/>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="34"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="34"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="34"/>
+      <c r="F29" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5654,52 +5629,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="E1" s="30">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="B2" s="33">
-        <v>68</v>
-      </c>
-      <c r="C2" s="31">
-        <v>4.496759687871975E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/URUGUAIANA.xlsx
+++ b/URUGUAIANA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F6851E5-5096-48A0-9DCD-00B9E4EEE780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27F1650E-6934-47EF-8169-2F040F066D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1219,7 +1219,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{75AC401F-389D-4FED-967D-7440CFF5CBD3}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{7A0AC752-CF82-4AB7-89A2-D5FB2A5974D6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1249,10 +1249,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{578C6FCE-45E2-449E-AD8D-CDEAA93F408B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{463FF5AD-A5D7-408D-9836-9F1098ECFC2E}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1290,7 +1290,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{159D7395-FC3E-485F-BB95-4823E14DEF7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F18D97CC-29E4-4924-BB81-F5A7EA3F6642}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1353,7 +1353,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7BDCF5A-9221-4E21-A276-91473936A619}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6538C44A-C14A-4174-9DE5-81FACA88D355}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1372,7 +1372,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14AD205A-EE49-6B65-9C7B-4CA405908A9C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F76CDC21-BB4F-F8CF-B212-841FB85B25E2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1421,7 +1421,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B4F7EE3-BEE1-0863-52CC-828A0325506A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB3158E-0AAE-DAA6-0172-6AE51BBBD47B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1440,7 +1440,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419000AF-66F9-1E91-69DF-4F95D282412D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACAB5EAF-2A18-339E-9F54-8D6C61840B28}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1471,7 +1471,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DFC32B1-B8F4-0B87-F20A-35EAE90404BA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31B512C8-734D-E6C9-F588-CBF18DD018C4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1502,7 +1502,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19FAFB3F-2C07-DEB7-A780-1F9F630C94C2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E205BB-6E2F-DD8B-D527-4B94A2EA504F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1545,7 +1545,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BA2F0DE-257A-46D9-B15F-91B5D7862DBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53121DF1-0BF3-4190-9450-7D16F1A64CEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,7 +1583,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B75CF62-D975-42BC-8D71-274D312A8E33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2F4D7B-1C47-4292-A8AE-4B7986199A69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,50 +1608,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A88EF6E8-EB13-40FC-AED4-44540597F519}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1939,7 +1895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8553A12-07C6-4833-A513-183F6B55E09A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9A770B-FC10-43EF-8D7F-362FD2DCCB72}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
